--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\RocketFPGA_hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFEEE261-7EEF-47AE-AEF1-D5079B2B6C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA3C2F-D1EB-450C-A484-F0B3BF75E3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7557999A-CC4D-496B-B60B-B1E4B1589D85}"/>
+    <workbookView xWindow="348" yWindow="1344" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{7557999A-CC4D-496B-B60B-B1E4B1589D85}"/>
   </bookViews>
   <sheets>
     <sheet name="RocketFPGA" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>CH551</t>
   </si>
@@ -203,6 +203,45 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A106MP8NNNC_10uF-106-20-10V_C85713.html</t>
+  </si>
+  <si>
+    <t>led red</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0805-Red-LED-Iv-61mcd-Typ-atIF-20mA_C72037.html</t>
+  </si>
+  <si>
+    <t>led green/red</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/New-Arrivals_MEIHUA-MHT170CRLGCT_C391863.html</t>
+  </si>
+  <si>
+    <t>led blue</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0805-blue_C205441.html</t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/ProductDetail/Wurth-Elektronik/629105136821?qs=%2Fha2pyFaduiBjBt32de63eUvWSiL1Vrl53OTMO%252B7qnQKl4r3Xe3wDQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Potentiometers-Variable-Resistors_ALPS-Electric-RK09K1130A5R_C209779.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Potentiometers-Variable-Resistors_ALPS-Electric-RK09K1130D62_C470399.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Speakers_FUET-FS-1340_C482342.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Audio-Power-OpAmps_Diodes-Incorporated_PAM8406DR_Diodes-Incorporated-PAM8406DR_C86270.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Tactile-Switches_SHOU-HAN-TS6610CJ_C557627.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/DIP-Switches_Dongguan-Guangzhu-Industrial-Dongguan-Guangzhu-Industrial-Dongguan-Guangzhu-Industrial-DIP-switch-Dip-Switch-DSWB02LHGET_C99421.html</t>
   </si>
 </sst>
 </file>
@@ -231,12 +270,18 @@
       <name val="ProximaNova-Reg"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,12 +297,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -573,16 +620,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905E7CBB-DDDB-4E3E-AACD-D245F101BA82}">
-  <dimension ref="B1:J29"/>
+  <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="22.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -697,6 +744,12 @@
         <f t="shared" si="0"/>
         <v>4.8487000000000002E-2</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
@@ -720,16 +773,16 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>3.3605000000000003E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>6.7210000000000006E-2</v>
       </c>
@@ -924,6 +977,30 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -955,18 +1032,22 @@
     <hyperlink ref="C27" r:id="rId25" xr:uid="{0750A302-136B-4148-A246-C15705F08414}"/>
     <hyperlink ref="C28" r:id="rId26" xr:uid="{C3D7E6E2-9F20-44DF-805E-5E5AFDA525A5}"/>
     <hyperlink ref="C29" r:id="rId27" xr:uid="{7D800181-6BCF-4415-BCAB-FE851A8C4EBA}"/>
+    <hyperlink ref="C31" r:id="rId28" xr:uid="{4F64777D-CB99-44DC-925F-E4BC85B83E03}"/>
+    <hyperlink ref="C32" r:id="rId29" xr:uid="{F0384871-E593-4E75-9826-ACC9EEA0E89B}"/>
+    <hyperlink ref="C33" r:id="rId30" xr:uid="{E6A7DF15-CF4B-4A80-A2C8-46D8D3CB0487}"/>
+    <hyperlink ref="H7" r:id="rId31" xr:uid="{B041B299-4918-4F1D-B393-2ABF7E77C43C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4169DDEA-841E-4BFD-9C39-7F265E5F40F7}">
-  <dimension ref="C2:C3"/>
+  <dimension ref="C2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -981,10 +1062,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{16DB992B-E3AD-43B6-AD85-6AC0A7FAF875}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{7BE21E3A-5600-4952-89C3-E764A1B607A3}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{6483BCC9-24F7-4733-A974-954D3BEECAED}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{9620ECD9-689D-4EC5-961A-5F1818FC9AE8}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{C2F57331-B9D9-4D17-8D5E-4650B45EB442}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{A02B9DFE-F4A8-4FFB-A5DE-E67A02798EAE}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{EBA8DFB5-5153-4FE6-B2C8-88733C9F7916}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{673ED53C-1AD2-46E6-8EA8-FA2023008DD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\RocketFPGA_hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA3C2F-D1EB-450C-A484-F0B3BF75E3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7114C41-A7DA-4DFC-834B-6748B1DD186F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1344" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{7557999A-CC4D-496B-B60B-B1E4B1589D85}"/>
+    <workbookView xWindow="1428" yWindow="804" windowWidth="18828" windowHeight="10836" xr2:uid="{7557999A-CC4D-496B-B60B-B1E4B1589D85}"/>
   </bookViews>
   <sheets>
     <sheet name="RocketFPGA" sheetId="1" r:id="rId1"/>
@@ -622,14 +622,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905E7CBB-DDDB-4E3E-AACD-D245F101BA82}">
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -1046,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4169DDEA-841E-4BFD-9C39-7F265E5F40F7}">
   <dimension ref="C2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
